--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0188C-630A-4048-9391-52148A0B9B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3585D7E2-428C-4F30-ACD9-938CD6ED7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -49,28 +49,16 @@
     <t>User</t>
   </si>
   <si>
-    <t>IM40</t>
-  </si>
-  <si>
-    <t>import user 1</t>
-  </si>
-  <si>
-    <t>importuser01</t>
-  </si>
-  <si>
     <t>importuser01@yopmail.com</t>
   </si>
   <si>
-    <t>import user 2</t>
-  </si>
-  <si>
-    <t>importuser02</t>
-  </si>
-  <si>
-    <t>IM41</t>
-  </si>
-  <si>
-    <t>importuser02@yopmail.com</t>
+    <t>import user 4</t>
+  </si>
+  <si>
+    <t>importuser04</t>
+  </si>
+  <si>
+    <t>IM43</t>
   </si>
 </sst>
 </file>
@@ -948,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,49 +984,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>9994397455</v>
+        <v>9994397458</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>9994397456</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7B87EC0-BE81-4F1E-953D-51240D2EC6D3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C5E9F836-2153-49FC-BCF5-556DE3585FE2}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{30ED8197-E0E1-4D0D-AAB5-DB52A3775A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3585D7E2-428C-4F30-ACD9-938CD6ED7487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517765F-1EAB-4A6C-AE9E-F0F011311C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>importuser01@yopmail.com</t>
   </si>
   <si>
-    <t>import user 4</t>
-  </si>
-  <si>
-    <t>importuser04</t>
-  </si>
-  <si>
-    <t>IM43</t>
+    <t>import user 6</t>
+  </si>
+  <si>
+    <t>importuser06</t>
+  </si>
+  <si>
+    <t>IM45</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>9994397458</v>
+        <v>9994397460</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1002,7 +1002,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{30ED8197-E0E1-4D0D-AAB5-DB52A3775A39}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5C29D571-B0F8-4D9A-AA40-141C7C468A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/User_Import.xlsx
+++ b/TestData/User_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFLOW PLAYWRIGHT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517765F-1EAB-4A6C-AE9E-F0F011311C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8BDA54-C3BB-4F7D-AE65-F0DA7AAE5DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,13 +52,13 @@
     <t>importuser01@yopmail.com</t>
   </si>
   <si>
-    <t>import user 6</t>
-  </si>
-  <si>
-    <t>importuser06</t>
-  </si>
-  <si>
-    <t>IM45</t>
+    <t>import user 7</t>
+  </si>
+  <si>
+    <t>importuser07</t>
+  </si>
+  <si>
+    <t>IM46</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>9994397460</v>
+        <v>9994397461</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1002,7 +1002,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5C29D571-B0F8-4D9A-AA40-141C7C468A71}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4BCB7BF3-E9F0-4BB6-9EDB-A4ABF7BCE673}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
